--- a/database/pak_tri/F0 Pak Tri Database Notel.xlsx
+++ b/database/pak_tri/F0 Pak Tri Database Notel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.UCUPd\Yabuki\Database\pak Tri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\pak_tri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA557C-DD7F-462A-AE86-331EEDF12C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D2BC26-91EA-4E68-A922-51D8B49F3246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="365">
   <si>
     <t>Keterangan</t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>6281513000008</t>
-  </si>
-  <si>
-    <t>6282122729841</t>
   </si>
   <si>
     <t>628569811981</t>
@@ -1471,10 +1468,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="G360" sqref="G360"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="H288" sqref="H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1522,7 +1519,7 @@
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1539,7 +1536,7 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -1555,7 +1552,7 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1572,7 +1569,7 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -1588,7 +1585,7 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1605,7 +1602,7 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -1621,7 +1618,7 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1638,7 +1635,7 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -1654,7 +1651,7 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1671,7 +1668,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -1687,7 +1684,7 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1704,7 +1701,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -1720,7 +1717,7 @@
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1737,7 +1734,7 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1753,7 +1750,7 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1770,7 +1767,7 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1786,7 +1783,7 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -1803,7 +1800,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -1819,7 +1816,7 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1836,7 +1833,7 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1852,7 +1849,7 @@
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1869,7 +1866,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -1885,7 +1882,7 @@
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -1902,7 +1899,7 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -1918,7 +1915,7 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -1934,7 +1931,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -1950,7 +1947,7 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -1966,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -1982,7 +1979,7 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -1998,7 +1995,7 @@
         <v>36</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F31" s="5"/>
     </row>
@@ -2014,7 +2011,7 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -2030,7 +2027,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -2046,7 +2043,7 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -2062,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F35" s="5"/>
     </row>
@@ -2078,7 +2075,7 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -2094,7 +2091,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2110,7 +2107,7 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -2126,7 +2123,7 @@
         <v>44</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -2142,7 +2139,7 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -2158,7 +2155,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -2174,7 +2171,7 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -2190,7 +2187,7 @@
         <v>48</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F43" s="5"/>
     </row>
@@ -2206,7 +2203,7 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -2222,7 +2219,7 @@
         <v>50</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F45" s="5"/>
     </row>
@@ -2238,7 +2235,7 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -2254,7 +2251,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F47" s="5"/>
     </row>
@@ -2270,7 +2267,7 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -2286,7 +2283,7 @@
         <v>54</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F49" s="5"/>
     </row>
@@ -2302,7 +2299,7 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -2318,7 +2315,7 @@
         <v>56</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F51" s="5"/>
     </row>
@@ -2334,7 +2331,7 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -2350,7 +2347,7 @@
         <v>58</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F53" s="5"/>
     </row>
@@ -2366,7 +2363,7 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -2382,7 +2379,7 @@
         <v>60</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -2398,7 +2395,7 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -2414,7 +2411,7 @@
         <v>62</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F57" s="5"/>
     </row>
@@ -2430,7 +2427,7 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -2446,7 +2443,7 @@
         <v>64</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F59" s="5"/>
     </row>
@@ -2462,7 +2459,7 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -2478,7 +2475,7 @@
         <v>66</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -2494,7 +2491,7 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -2510,7 +2507,7 @@
         <v>68</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F63" s="5"/>
     </row>
@@ -2526,7 +2523,7 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -2542,7 +2539,7 @@
         <v>70</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F65" s="5"/>
     </row>
@@ -2558,7 +2555,7 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -2574,7 +2571,7 @@
         <v>72</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F67" s="5"/>
     </row>
@@ -2590,7 +2587,7 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -2606,7 +2603,7 @@
         <v>74</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F69" s="5"/>
     </row>
@@ -2622,7 +2619,7 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -2638,7 +2635,7 @@
         <v>76</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -2654,7 +2651,7 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -2670,7 +2667,7 @@
         <v>78</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F73" s="5"/>
     </row>
@@ -2686,7 +2683,7 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -2702,7 +2699,7 @@
         <v>80</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F75" s="5"/>
     </row>
@@ -2718,7 +2715,7 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -2734,7 +2731,7 @@
         <v>82</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F77" s="5"/>
     </row>
@@ -2750,7 +2747,7 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -2766,7 +2763,7 @@
         <v>84</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F79" s="5"/>
     </row>
@@ -2782,7 +2779,7 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -2798,7 +2795,7 @@
         <v>86</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F81" s="5"/>
     </row>
@@ -2814,7 +2811,7 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -2830,7 +2827,7 @@
         <v>88</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F83" s="5"/>
     </row>
@@ -2846,7 +2843,7 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -2862,7 +2859,7 @@
         <v>90</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F85" s="5"/>
     </row>
@@ -2878,7 +2875,7 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -2894,7 +2891,7 @@
         <v>92</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -2910,7 +2907,7 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -2926,7 +2923,7 @@
         <v>94</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F89" s="5"/>
     </row>
@@ -2942,7 +2939,7 @@
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -2958,7 +2955,7 @@
         <v>96</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F91" s="5"/>
     </row>
@@ -2974,7 +2971,7 @@
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -2990,7 +2987,7 @@
         <v>98</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F93" s="5"/>
     </row>
@@ -3006,7 +3003,7 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -3022,7 +3019,7 @@
         <v>100</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F95" s="5"/>
     </row>
@@ -3038,7 +3035,7 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -3054,7 +3051,7 @@
         <v>102</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F97" s="5"/>
     </row>
@@ -3070,7 +3067,7 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -3086,7 +3083,7 @@
         <v>104</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F99" s="5"/>
     </row>
@@ -3102,7 +3099,7 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -3118,7 +3115,7 @@
         <v>106</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F101" s="5"/>
     </row>
@@ -3134,7 +3131,7 @@
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -3150,7 +3147,7 @@
         <v>108</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F103" s="5"/>
     </row>
@@ -3166,7 +3163,7 @@
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
@@ -3182,7 +3179,7 @@
         <v>110</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F105" s="5"/>
     </row>
@@ -3198,7 +3195,7 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -3214,7 +3211,7 @@
         <v>112</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F107" s="5"/>
     </row>
@@ -3230,7 +3227,7 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
@@ -3246,7 +3243,7 @@
         <v>114</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F109" s="5"/>
     </row>
@@ -3262,7 +3259,7 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
@@ -3278,7 +3275,7 @@
         <v>116</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F111" s="5"/>
     </row>
@@ -3294,7 +3291,7 @@
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -3310,7 +3307,7 @@
         <v>118</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F113" s="5"/>
     </row>
@@ -3326,7 +3323,7 @@
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -3342,7 +3339,7 @@
         <v>120</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F115" s="5"/>
     </row>
@@ -3358,7 +3355,7 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -3374,7 +3371,7 @@
         <v>122</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F117" s="5"/>
     </row>
@@ -3390,7 +3387,7 @@
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
@@ -3406,7 +3403,7 @@
         <v>124</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F119" s="5"/>
     </row>
@@ -3422,7 +3419,7 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
@@ -3438,7 +3435,7 @@
         <v>126</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F121" s="5"/>
     </row>
@@ -3454,7 +3451,7 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -3470,7 +3467,7 @@
         <v>128</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F123" s="5"/>
     </row>
@@ -3486,7 +3483,7 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
@@ -3502,7 +3499,7 @@
         <v>130</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F125" s="5"/>
     </row>
@@ -3518,7 +3515,7 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
@@ -3534,7 +3531,7 @@
         <v>132</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F127" s="5"/>
     </row>
@@ -3550,7 +3547,7 @@
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
@@ -3566,7 +3563,7 @@
         <v>134</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F129" s="5"/>
     </row>
@@ -3582,7 +3579,7 @@
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
@@ -3598,7 +3595,7 @@
         <v>136</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F131" s="5"/>
     </row>
@@ -3614,7 +3611,7 @@
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
@@ -3630,7 +3627,7 @@
         <v>138</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F133" s="5"/>
     </row>
@@ -3646,7 +3643,7 @@
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
@@ -3662,7 +3659,7 @@
         <v>140</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F135" s="5"/>
     </row>
@@ -3678,7 +3675,7 @@
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
@@ -3694,7 +3691,7 @@
         <v>142</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F137" s="5"/>
     </row>
@@ -3710,7 +3707,7 @@
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
@@ -3726,7 +3723,7 @@
         <v>144</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F139" s="5"/>
     </row>
@@ -3742,7 +3739,7 @@
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
@@ -3758,7 +3755,7 @@
         <v>146</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F141" s="5"/>
     </row>
@@ -3774,7 +3771,7 @@
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
@@ -3790,7 +3787,7 @@
         <v>148</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F143" s="5"/>
     </row>
@@ -3806,7 +3803,7 @@
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -3822,7 +3819,7 @@
         <v>150</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F145" s="5"/>
     </row>
@@ -3838,7 +3835,7 @@
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
@@ -3854,7 +3851,7 @@
         <v>152</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F147" s="5"/>
     </row>
@@ -3870,7 +3867,7 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
@@ -3886,7 +3883,7 @@
         <v>154</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F149" s="5"/>
     </row>
@@ -3902,7 +3899,7 @@
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
@@ -3918,7 +3915,7 @@
         <v>156</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F151" s="5"/>
     </row>
@@ -3934,7 +3931,7 @@
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
@@ -3950,7 +3947,7 @@
         <v>158</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F153" s="5"/>
     </row>
@@ -3966,7 +3963,7 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
@@ -3982,7 +3979,7 @@
         <v>160</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F155" s="5"/>
     </row>
@@ -3998,7 +3995,7 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
@@ -4014,7 +4011,7 @@
         <v>162</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F157" s="5"/>
     </row>
@@ -4030,7 +4027,7 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
@@ -4046,7 +4043,7 @@
         <v>164</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F159" s="5"/>
     </row>
@@ -4062,7 +4059,7 @@
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
@@ -4078,7 +4075,7 @@
         <v>166</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F161" s="5"/>
     </row>
@@ -4094,7 +4091,7 @@
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -4110,7 +4107,7 @@
         <v>168</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F163" s="5"/>
     </row>
@@ -4126,7 +4123,7 @@
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
@@ -4142,7 +4139,7 @@
         <v>170</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F165" s="5"/>
     </row>
@@ -4158,7 +4155,7 @@
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -4174,7 +4171,7 @@
         <v>172</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F167" s="5"/>
     </row>
@@ -4190,7 +4187,7 @@
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -4206,7 +4203,7 @@
         <v>174</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F169" s="5"/>
     </row>
@@ -4222,7 +4219,7 @@
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -4238,7 +4235,7 @@
         <v>176</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F171" s="5"/>
     </row>
@@ -4254,7 +4251,7 @@
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
@@ -4270,7 +4267,7 @@
         <v>178</v>
       </c>
       <c r="E173" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F173" s="5"/>
     </row>
@@ -4286,7 +4283,7 @@
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
@@ -4302,7 +4299,7 @@
         <v>180</v>
       </c>
       <c r="E175" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F175" s="5"/>
     </row>
@@ -4318,7 +4315,7 @@
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
@@ -4334,7 +4331,7 @@
         <v>182</v>
       </c>
       <c r="E177" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F177" s="5"/>
     </row>
@@ -4350,7 +4347,7 @@
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -4366,7 +4363,7 @@
         <v>184</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F179" s="5"/>
     </row>
@@ -4382,7 +4379,7 @@
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
@@ -4398,7 +4395,7 @@
         <v>186</v>
       </c>
       <c r="E181" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F181" s="5"/>
     </row>
@@ -4414,7 +4411,7 @@
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
@@ -4430,7 +4427,7 @@
         <v>188</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F183" s="5"/>
     </row>
@@ -4446,7 +4443,7 @@
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -4462,7 +4459,7 @@
         <v>190</v>
       </c>
       <c r="E185" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F185" s="5"/>
     </row>
@@ -4478,7 +4475,7 @@
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -4494,7 +4491,7 @@
         <v>192</v>
       </c>
       <c r="E187" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F187" s="5"/>
     </row>
@@ -4510,7 +4507,7 @@
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
@@ -4526,7 +4523,7 @@
         <v>194</v>
       </c>
       <c r="E189" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F189" s="5"/>
     </row>
@@ -4542,7 +4539,7 @@
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
@@ -4558,7 +4555,7 @@
         <v>196</v>
       </c>
       <c r="E191" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F191" s="5"/>
     </row>
@@ -4574,7 +4571,7 @@
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
@@ -4590,7 +4587,7 @@
         <v>198</v>
       </c>
       <c r="E193" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F193" s="5"/>
     </row>
@@ -4606,7 +4603,7 @@
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
@@ -4622,7 +4619,7 @@
         <v>200</v>
       </c>
       <c r="E195" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F195" s="5"/>
     </row>
@@ -4638,7 +4635,7 @@
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
@@ -4654,7 +4651,7 @@
         <v>202</v>
       </c>
       <c r="E197" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F197" s="5"/>
     </row>
@@ -4670,7 +4667,7 @@
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
@@ -4686,7 +4683,7 @@
         <v>204</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F199" s="5"/>
     </row>
@@ -4702,7 +4699,7 @@
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
@@ -4718,7 +4715,7 @@
         <v>206</v>
       </c>
       <c r="E201" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F201" s="5"/>
     </row>
@@ -4734,7 +4731,7 @@
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
@@ -4750,7 +4747,7 @@
         <v>208</v>
       </c>
       <c r="E203" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F203" s="5"/>
     </row>
@@ -4766,7 +4763,7 @@
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
@@ -4782,7 +4779,7 @@
         <v>210</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F205" s="5"/>
     </row>
@@ -4798,7 +4795,7 @@
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
@@ -4814,7 +4811,7 @@
         <v>212</v>
       </c>
       <c r="E207" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F207" s="5"/>
     </row>
@@ -4830,7 +4827,7 @@
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
@@ -4846,7 +4843,7 @@
         <v>214</v>
       </c>
       <c r="E209" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F209" s="5"/>
     </row>
@@ -4862,7 +4859,7 @@
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
@@ -4878,7 +4875,7 @@
         <v>216</v>
       </c>
       <c r="E211" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F211" s="5"/>
     </row>
@@ -4894,7 +4891,7 @@
       </c>
       <c r="D212" s="10"/>
       <c r="E212" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
@@ -4911,7 +4908,7 @@
       </c>
       <c r="D213" s="11"/>
       <c r="E213" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F213" s="5"/>
     </row>
@@ -4927,7 +4924,7 @@
       </c>
       <c r="D214" s="10"/>
       <c r="E214" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
@@ -4944,7 +4941,7 @@
       </c>
       <c r="D215" s="11"/>
       <c r="E215" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F215" s="5"/>
     </row>
@@ -4960,7 +4957,7 @@
       </c>
       <c r="D216" s="10"/>
       <c r="E216" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
@@ -4977,7 +4974,7 @@
       </c>
       <c r="D217" s="11"/>
       <c r="E217" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F217" s="5"/>
     </row>
@@ -4993,7 +4990,7 @@
       </c>
       <c r="D218" s="10"/>
       <c r="E218" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
@@ -5010,7 +5007,7 @@
       </c>
       <c r="D219" s="11"/>
       <c r="E219" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F219" s="5"/>
     </row>
@@ -5026,7 +5023,7 @@
       </c>
       <c r="D220" s="10"/>
       <c r="E220" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
@@ -5043,7 +5040,7 @@
       </c>
       <c r="D221" s="11"/>
       <c r="E221" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F221" s="5"/>
     </row>
@@ -5059,7 +5056,7 @@
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
@@ -5076,7 +5073,7 @@
       </c>
       <c r="D223" s="11"/>
       <c r="E223" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F223" s="5"/>
     </row>
@@ -5092,7 +5089,7 @@
       </c>
       <c r="D224" s="10"/>
       <c r="E224" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
@@ -5109,7 +5106,7 @@
       </c>
       <c r="D225" s="11"/>
       <c r="E225" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F225" s="5"/>
     </row>
@@ -5125,7 +5122,7 @@
       </c>
       <c r="D226" s="10"/>
       <c r="E226" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
@@ -5142,7 +5139,7 @@
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F227" s="5"/>
     </row>
@@ -5158,7 +5155,7 @@
       </c>
       <c r="D228" s="10"/>
       <c r="E228" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
@@ -5175,7 +5172,7 @@
       </c>
       <c r="D229" s="11"/>
       <c r="E229" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F229" s="5"/>
     </row>
@@ -5191,7 +5188,7 @@
       </c>
       <c r="D230" s="10"/>
       <c r="E230" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
@@ -5208,7 +5205,7 @@
       </c>
       <c r="D231" s="11"/>
       <c r="E231" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F231" s="5"/>
     </row>
@@ -5224,7 +5221,7 @@
       </c>
       <c r="D232" s="10"/>
       <c r="E232" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
@@ -5241,7 +5238,7 @@
       </c>
       <c r="D233" s="11"/>
       <c r="E233" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F233" s="5"/>
     </row>
@@ -5257,7 +5254,7 @@
       </c>
       <c r="D234" s="10"/>
       <c r="E234" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
@@ -5274,7 +5271,7 @@
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F235" s="5"/>
     </row>
@@ -5290,7 +5287,7 @@
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
@@ -5306,7 +5303,7 @@
         <v>242</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F237" s="5"/>
     </row>
@@ -5322,7 +5319,7 @@
       </c>
       <c r="D238" s="9"/>
       <c r="E238" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
@@ -5338,7 +5335,7 @@
         <v>244</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F239" s="5"/>
     </row>
@@ -5354,7 +5351,7 @@
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
@@ -5370,7 +5367,7 @@
         <v>246</v>
       </c>
       <c r="E241" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F241" s="5"/>
     </row>
@@ -5386,7 +5383,7 @@
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
@@ -5402,7 +5399,7 @@
         <v>248</v>
       </c>
       <c r="E243" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F243" s="5"/>
     </row>
@@ -5418,7 +5415,7 @@
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
@@ -5434,7 +5431,7 @@
         <v>250</v>
       </c>
       <c r="E245" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F245" s="5"/>
     </row>
@@ -5450,7 +5447,7 @@
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
@@ -5466,7 +5463,7 @@
         <v>252</v>
       </c>
       <c r="E247" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F247" s="5"/>
     </row>
@@ -5482,7 +5479,7 @@
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
@@ -5498,7 +5495,7 @@
         <v>254</v>
       </c>
       <c r="E249" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F249" s="5"/>
     </row>
@@ -5514,7 +5511,7 @@
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
@@ -5530,7 +5527,7 @@
         <v>256</v>
       </c>
       <c r="E251" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F251" s="5"/>
     </row>
@@ -5546,7 +5543,7 @@
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
@@ -5562,7 +5559,7 @@
         <v>258</v>
       </c>
       <c r="E253" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F253" s="5"/>
     </row>
@@ -5578,7 +5575,7 @@
       </c>
       <c r="D254" s="9"/>
       <c r="E254" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F254" s="9"/>
       <c r="G254" s="9"/>
@@ -5594,7 +5591,7 @@
         <v>260</v>
       </c>
       <c r="E255" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F255" s="5"/>
     </row>
@@ -5610,7 +5607,7 @@
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
@@ -5626,7 +5623,7 @@
         <v>262</v>
       </c>
       <c r="E257" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F257" s="5"/>
     </row>
@@ -5642,7 +5639,7 @@
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F258" s="9"/>
       <c r="G258" s="9"/>
@@ -5658,7 +5655,7 @@
         <v>264</v>
       </c>
       <c r="E259" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F259" s="5"/>
     </row>
@@ -5674,7 +5671,7 @@
       </c>
       <c r="D260" s="9"/>
       <c r="E260" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F260" s="9"/>
       <c r="G260" s="9"/>
@@ -5690,7 +5687,7 @@
         <v>266</v>
       </c>
       <c r="E261" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F261" s="5"/>
     </row>
@@ -5706,7 +5703,7 @@
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F262" s="9"/>
       <c r="G262" s="9"/>
@@ -5722,7 +5719,7 @@
         <v>268</v>
       </c>
       <c r="E263" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F263" s="5"/>
     </row>
@@ -5738,7 +5735,7 @@
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F264" s="9"/>
       <c r="G264" s="9"/>
@@ -5754,7 +5751,7 @@
         <v>270</v>
       </c>
       <c r="E265" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F265" s="5"/>
     </row>
@@ -5770,7 +5767,7 @@
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F266" s="9"/>
       <c r="G266" s="9"/>
@@ -5786,7 +5783,7 @@
         <v>272</v>
       </c>
       <c r="E267" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F267" s="5"/>
     </row>
@@ -5802,7 +5799,7 @@
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F268" s="9"/>
       <c r="G268" s="9"/>
@@ -5818,7 +5815,7 @@
         <v>274</v>
       </c>
       <c r="E269" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F269" s="5"/>
     </row>
@@ -5834,7 +5831,7 @@
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F270" s="9"/>
       <c r="G270" s="9"/>
@@ -5850,7 +5847,7 @@
         <v>276</v>
       </c>
       <c r="E271" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F271" s="5"/>
     </row>
@@ -5866,7 +5863,7 @@
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F272" s="9"/>
       <c r="G272" s="9"/>
@@ -5882,7 +5879,7 @@
         <v>278</v>
       </c>
       <c r="E273" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F273" s="5"/>
     </row>
@@ -5898,7 +5895,7 @@
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="9"/>
@@ -5914,7 +5911,7 @@
         <v>280</v>
       </c>
       <c r="E275" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F275" s="5"/>
     </row>
@@ -5930,7 +5927,7 @@
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F276" s="9"/>
       <c r="G276" s="9"/>
@@ -5946,1818 +5943,1802 @@
         <v>282</v>
       </c>
       <c r="E277" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F277" s="5"/>
     </row>
     <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="7">
-        <v>277</v>
-      </c>
-      <c r="B278" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C278" s="12" t="s">
+      <c r="A278" s="3">
+        <v>278</v>
+      </c>
+      <c r="B278" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C278" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D278" s="9"/>
-      <c r="E278" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F278" s="9"/>
-      <c r="G278" s="9"/>
+      <c r="E278" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F278" s="5"/>
     </row>
     <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="3">
-        <v>278</v>
-      </c>
-      <c r="B279" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C279" s="13" t="s">
+      <c r="A279" s="7">
+        <v>279</v>
+      </c>
+      <c r="B279" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C279" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="E279" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F279" s="5"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
     </row>
     <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="7">
-        <v>279</v>
-      </c>
-      <c r="B280" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C280" s="12" t="s">
+      <c r="A280" s="3">
+        <v>280</v>
+      </c>
+      <c r="B280" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C280" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="D280" s="9"/>
-      <c r="E280" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F280" s="9"/>
-      <c r="G280" s="9"/>
+      <c r="E280" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F280" s="5"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="3">
-        <v>280</v>
-      </c>
-      <c r="B281" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C281" s="13" t="s">
+      <c r="A281" s="7">
+        <v>281</v>
+      </c>
+      <c r="B281" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C281" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E281" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F281" s="5"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="7">
-        <v>281</v>
-      </c>
-      <c r="B282" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C282" s="12" t="s">
+      <c r="A282" s="3">
+        <v>282</v>
+      </c>
+      <c r="B282" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C282" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D282" s="9"/>
-      <c r="E282" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F282" s="9"/>
-      <c r="G282" s="9"/>
+      <c r="E282" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F282" s="5"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="3">
-        <v>282</v>
-      </c>
-      <c r="B283" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C283" s="13" t="s">
+      <c r="A283" s="7">
+        <v>283</v>
+      </c>
+      <c r="B283" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C283" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E283" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F283" s="5"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="7">
-        <v>283</v>
-      </c>
-      <c r="B284" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C284" s="12" t="s">
+      <c r="A284" s="3">
+        <v>284</v>
+      </c>
+      <c r="B284" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C284" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D284" s="9"/>
-      <c r="E284" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F284" s="9"/>
-      <c r="G284" s="9"/>
+      <c r="E284" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F284" s="5"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="3">
-        <v>284</v>
-      </c>
-      <c r="B285" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C285" s="13" t="s">
+      <c r="A285" s="7">
+        <v>285</v>
+      </c>
+      <c r="B285" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C285" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E285" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F285" s="5"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="7">
-        <v>285</v>
-      </c>
-      <c r="B286" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C286" s="12" t="s">
+      <c r="A286" s="3">
+        <v>286</v>
+      </c>
+      <c r="B286" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C286" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D286" s="9"/>
-      <c r="E286" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F286" s="9"/>
-      <c r="G286" s="9"/>
+      <c r="E286" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F286" s="5"/>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="3">
-        <v>286</v>
-      </c>
-      <c r="B287" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C287" s="13" t="s">
+      <c r="A287" s="7">
+        <v>287</v>
+      </c>
+      <c r="B287" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C287" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E287" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F287" s="5"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
     </row>
     <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="7">
-        <v>287</v>
-      </c>
-      <c r="B288" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C288" s="12" t="s">
+      <c r="A288" s="3">
+        <v>288</v>
+      </c>
+      <c r="B288" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C288" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D288" s="9"/>
-      <c r="E288" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F288" s="9"/>
-      <c r="G288" s="9"/>
+      <c r="E288" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F288" s="5"/>
     </row>
     <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="3">
-        <v>288</v>
-      </c>
-      <c r="B289" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C289" s="13" t="s">
+      <c r="A289" s="7">
+        <v>289</v>
+      </c>
+      <c r="B289" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C289" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E289" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F289" s="5"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F289" s="9"/>
+      <c r="G289" s="9"/>
     </row>
     <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="7">
-        <v>289</v>
-      </c>
-      <c r="B290" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C290" s="12" t="s">
+      <c r="A290" s="3">
+        <v>290</v>
+      </c>
+      <c r="B290" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C290" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D290" s="9"/>
-      <c r="E290" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F290" s="9"/>
-      <c r="G290" s="9"/>
+      <c r="E290" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F290" s="5"/>
     </row>
     <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="3">
-        <v>290</v>
-      </c>
-      <c r="B291" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C291" s="13" t="s">
+      <c r="A291" s="7">
+        <v>291</v>
+      </c>
+      <c r="B291" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C291" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E291" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F291" s="5"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F291" s="9"/>
+      <c r="G291" s="9"/>
     </row>
     <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="7">
-        <v>291</v>
-      </c>
-      <c r="B292" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C292" s="12" t="s">
+      <c r="A292" s="3">
+        <v>292</v>
+      </c>
+      <c r="B292" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C292" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D292" s="9"/>
-      <c r="E292" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F292" s="9"/>
-      <c r="G292" s="9"/>
+      <c r="E292" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F292" s="5"/>
     </row>
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="3">
-        <v>292</v>
-      </c>
-      <c r="B293" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C293" s="13" t="s">
+      <c r="A293" s="7">
+        <v>293</v>
+      </c>
+      <c r="B293" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C293" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="E293" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F293" s="5"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9"/>
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="7">
-        <v>293</v>
-      </c>
-      <c r="B294" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C294" s="12" t="s">
+      <c r="A294" s="3">
+        <v>294</v>
+      </c>
+      <c r="B294" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C294" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D294" s="9"/>
-      <c r="E294" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F294" s="9"/>
-      <c r="G294" s="9"/>
+      <c r="E294" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F294" s="5"/>
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="3">
-        <v>294</v>
-      </c>
-      <c r="B295" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C295" s="13" t="s">
+      <c r="A295" s="7">
+        <v>295</v>
+      </c>
+      <c r="B295" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C295" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="E295" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F295" s="5"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F295" s="9"/>
+      <c r="G295" s="9"/>
     </row>
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="7">
-        <v>295</v>
-      </c>
-      <c r="B296" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C296" s="12" t="s">
+      <c r="A296" s="3">
+        <v>296</v>
+      </c>
+      <c r="B296" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C296" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D296" s="9"/>
-      <c r="E296" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F296" s="9"/>
-      <c r="G296" s="9"/>
+      <c r="E296" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F296" s="5"/>
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="3">
-        <v>296</v>
-      </c>
-      <c r="B297" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C297" s="13" t="s">
+      <c r="A297" s="7">
+        <v>297</v>
+      </c>
+      <c r="B297" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C297" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E297" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F297" s="5"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="7">
-        <v>297</v>
-      </c>
-      <c r="B298" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C298" s="12" t="s">
+      <c r="A298" s="3">
+        <v>298</v>
+      </c>
+      <c r="B298" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C298" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D298" s="9"/>
-      <c r="E298" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F298" s="9"/>
-      <c r="G298" s="9"/>
+      <c r="E298" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F298" s="5"/>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="3">
-        <v>298</v>
-      </c>
-      <c r="B299" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C299" s="13" t="s">
+      <c r="A299" s="7">
+        <v>299</v>
+      </c>
+      <c r="B299" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C299" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E299" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F299" s="5"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="7">
-        <v>299</v>
-      </c>
-      <c r="B300" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C300" s="12" t="s">
+      <c r="A300" s="3">
+        <v>300</v>
+      </c>
+      <c r="B300" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C300" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="9"/>
-      <c r="E300" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F300" s="9"/>
-      <c r="G300" s="9"/>
+      <c r="E300" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F300" s="5"/>
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="3">
-        <v>300</v>
-      </c>
-      <c r="B301" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C301" s="13" t="s">
+      <c r="A301" s="7">
+        <v>301</v>
+      </c>
+      <c r="B301" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C301" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E301" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F301" s="5"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="7">
-        <v>301</v>
-      </c>
-      <c r="B302" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C302" s="12" t="s">
+      <c r="A302" s="3">
+        <v>302</v>
+      </c>
+      <c r="B302" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C302" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D302" s="9"/>
-      <c r="E302" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F302" s="9"/>
-      <c r="G302" s="9"/>
+      <c r="E302" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F302" s="5"/>
     </row>
     <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="3">
-        <v>302</v>
-      </c>
-      <c r="B303" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C303" s="13" t="s">
+      <c r="A303" s="7">
+        <v>303</v>
+      </c>
+      <c r="B303" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C303" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="E303" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F303" s="5"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9"/>
     </row>
     <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="7">
-        <v>303</v>
-      </c>
-      <c r="B304" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C304" s="12" t="s">
+      <c r="A304" s="3">
+        <v>304</v>
+      </c>
+      <c r="B304" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C304" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D304" s="9"/>
-      <c r="E304" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F304" s="9"/>
-      <c r="G304" s="9"/>
+      <c r="E304" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F304" s="5"/>
     </row>
     <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="3">
-        <v>304</v>
-      </c>
-      <c r="B305" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C305" s="13" t="s">
+      <c r="A305" s="7">
+        <v>305</v>
+      </c>
+      <c r="B305" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C305" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E305" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F305" s="5"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9"/>
     </row>
     <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="7">
-        <v>305</v>
-      </c>
-      <c r="B306" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C306" s="12" t="s">
+      <c r="A306" s="3">
+        <v>306</v>
+      </c>
+      <c r="B306" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C306" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D306" s="9"/>
-      <c r="E306" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F306" s="9"/>
-      <c r="G306" s="9"/>
+      <c r="E306" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F306" s="5"/>
     </row>
     <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="3">
-        <v>306</v>
-      </c>
-      <c r="B307" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C307" s="13" t="s">
+      <c r="A307" s="7">
+        <v>307</v>
+      </c>
+      <c r="B307" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C307" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E307" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F307" s="5"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
     </row>
     <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="7">
-        <v>307</v>
-      </c>
-      <c r="B308" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C308" s="12" t="s">
+      <c r="A308" s="3">
+        <v>308</v>
+      </c>
+      <c r="B308" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C308" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D308" s="9"/>
-      <c r="E308" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F308" s="9"/>
-      <c r="G308" s="9"/>
+      <c r="E308" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F308" s="5"/>
     </row>
     <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="3">
-        <v>308</v>
-      </c>
-      <c r="B309" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C309" s="13" t="s">
+      <c r="A309" s="7">
+        <v>309</v>
+      </c>
+      <c r="B309" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C309" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="E309" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F309" s="5"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F309" s="9"/>
+      <c r="G309" s="9"/>
     </row>
     <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="7">
-        <v>309</v>
-      </c>
-      <c r="B310" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C310" s="12" t="s">
+      <c r="A310" s="3">
+        <v>310</v>
+      </c>
+      <c r="B310" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C310" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D310" s="9"/>
-      <c r="E310" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F310" s="9"/>
-      <c r="G310" s="9"/>
+      <c r="E310" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F310" s="5"/>
     </row>
     <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="3">
-        <v>310</v>
-      </c>
-      <c r="B311" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C311" s="13" t="s">
+      <c r="A311" s="7">
+        <v>311</v>
+      </c>
+      <c r="B311" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C311" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="E311" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F311" s="5"/>
+      <c r="D311" s="9"/>
+      <c r="E311" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F311" s="9"/>
+      <c r="G311" s="9"/>
     </row>
     <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="7">
-        <v>311</v>
-      </c>
-      <c r="B312" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C312" s="12" t="s">
+      <c r="A312" s="3">
+        <v>312</v>
+      </c>
+      <c r="B312" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C312" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D312" s="9"/>
-      <c r="E312" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F312" s="9"/>
-      <c r="G312" s="9"/>
+      <c r="E312" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F312" s="5"/>
     </row>
     <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="3">
-        <v>312</v>
-      </c>
-      <c r="B313" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C313" s="13" t="s">
+      <c r="A313" s="7">
+        <v>313</v>
+      </c>
+      <c r="B313" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C313" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E313" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F313" s="5"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F313" s="9"/>
+      <c r="G313" s="9"/>
     </row>
     <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="7">
-        <v>313</v>
-      </c>
-      <c r="B314" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C314" s="12" t="s">
+      <c r="A314" s="3">
+        <v>314</v>
+      </c>
+      <c r="B314" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C314" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D314" s="9"/>
-      <c r="E314" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F314" s="9"/>
-      <c r="G314" s="9"/>
+      <c r="E314" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F314" s="5"/>
     </row>
     <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="3">
-        <v>314</v>
-      </c>
-      <c r="B315" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C315" s="13" t="s">
+      <c r="A315" s="7">
+        <v>315</v>
+      </c>
+      <c r="B315" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C315" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="E315" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F315" s="5"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F315" s="9"/>
+      <c r="G315" s="9"/>
     </row>
     <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="7">
-        <v>315</v>
-      </c>
-      <c r="B316" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C316" s="12" t="s">
+      <c r="A316" s="3">
+        <v>316</v>
+      </c>
+      <c r="B316" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C316" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D316" s="9"/>
-      <c r="E316" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F316" s="9"/>
-      <c r="G316" s="9"/>
+      <c r="E316" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F316" s="5"/>
     </row>
     <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="3">
-        <v>316</v>
-      </c>
-      <c r="B317" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C317" s="13" t="s">
+      <c r="A317" s="7">
+        <v>317</v>
+      </c>
+      <c r="B317" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C317" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E317" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F317" s="5"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F317" s="9"/>
+      <c r="G317" s="9"/>
     </row>
     <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="7">
-        <v>317</v>
-      </c>
-      <c r="B318" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C318" s="12" t="s">
+      <c r="A318" s="3">
+        <v>318</v>
+      </c>
+      <c r="B318" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C318" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D318" s="9"/>
-      <c r="E318" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F318" s="9"/>
-      <c r="G318" s="9"/>
+      <c r="E318" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F318" s="5"/>
     </row>
     <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="3">
-        <v>318</v>
-      </c>
-      <c r="B319" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C319" s="13" t="s">
+      <c r="A319" s="7">
+        <v>319</v>
+      </c>
+      <c r="B319" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C319" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E319" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F319" s="5"/>
+      <c r="D319" s="9"/>
+      <c r="E319" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F319" s="9"/>
+      <c r="G319" s="9"/>
     </row>
     <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="7">
-        <v>319</v>
-      </c>
-      <c r="B320" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C320" s="12" t="s">
+      <c r="A320" s="3">
+        <v>320</v>
+      </c>
+      <c r="B320" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C320" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D320" s="9"/>
-      <c r="E320" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F320" s="9"/>
-      <c r="G320" s="9"/>
+      <c r="E320" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F320" s="5"/>
     </row>
     <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="3">
-        <v>320</v>
-      </c>
-      <c r="B321" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C321" s="13" t="s">
+      <c r="A321" s="7">
+        <v>321</v>
+      </c>
+      <c r="B321" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C321" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E321" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F321" s="5"/>
+      <c r="D321" s="9"/>
+      <c r="E321" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F321" s="9"/>
+      <c r="G321" s="9"/>
     </row>
     <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="7">
-        <v>321</v>
-      </c>
-      <c r="B322" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C322" s="12" t="s">
+      <c r="A322" s="3">
+        <v>322</v>
+      </c>
+      <c r="B322" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C322" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D322" s="9"/>
-      <c r="E322" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F322" s="9"/>
-      <c r="G322" s="9"/>
+      <c r="E322" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F322" s="5"/>
     </row>
     <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="3">
-        <v>322</v>
-      </c>
-      <c r="B323" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C323" s="13" t="s">
+      <c r="A323" s="7">
+        <v>323</v>
+      </c>
+      <c r="B323" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C323" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="E323" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F323" s="5"/>
+      <c r="D323" s="9"/>
+      <c r="E323" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F323" s="9"/>
+      <c r="G323" s="9"/>
     </row>
     <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="7">
-        <v>323</v>
-      </c>
-      <c r="B324" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C324" s="12" t="s">
+      <c r="A324" s="3">
+        <v>324</v>
+      </c>
+      <c r="B324" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C324" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D324" s="9"/>
-      <c r="E324" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F324" s="9"/>
-      <c r="G324" s="9"/>
+      <c r="E324" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F324" s="5"/>
     </row>
     <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="3">
-        <v>324</v>
-      </c>
-      <c r="B325" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C325" s="13" t="s">
+      <c r="A325" s="7">
+        <v>325</v>
+      </c>
+      <c r="B325" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C325" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="E325" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F325" s="5"/>
+      <c r="D325" s="9"/>
+      <c r="E325" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F325" s="9"/>
+      <c r="G325" s="9"/>
     </row>
     <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="7">
-        <v>325</v>
-      </c>
-      <c r="B326" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C326" s="12" t="s">
+      <c r="A326" s="3">
+        <v>326</v>
+      </c>
+      <c r="B326" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C326" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D326" s="9"/>
-      <c r="E326" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F326" s="9"/>
-      <c r="G326" s="9"/>
+      <c r="E326" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F326" s="5"/>
     </row>
     <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="3">
-        <v>326</v>
-      </c>
-      <c r="B327" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C327" s="13" t="s">
+      <c r="A327" s="7">
+        <v>327</v>
+      </c>
+      <c r="B327" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C327" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="E327" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F327" s="5"/>
+      <c r="D327" s="9"/>
+      <c r="E327" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F327" s="9"/>
+      <c r="G327" s="9"/>
     </row>
     <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="7">
-        <v>327</v>
-      </c>
-      <c r="B328" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C328" s="12" t="s">
+      <c r="A328" s="3">
+        <v>328</v>
+      </c>
+      <c r="B328" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C328" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D328" s="9"/>
-      <c r="E328" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F328" s="9"/>
-      <c r="G328" s="9"/>
+      <c r="E328" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F328" s="5"/>
     </row>
     <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="3">
-        <v>328</v>
-      </c>
-      <c r="B329" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C329" s="13" t="s">
+      <c r="A329" s="7">
+        <v>329</v>
+      </c>
+      <c r="B329" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C329" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="E329" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F329" s="5"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F329" s="9"/>
+      <c r="G329" s="9"/>
     </row>
     <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="7">
-        <v>329</v>
-      </c>
-      <c r="B330" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C330" s="12" t="s">
+      <c r="A330" s="3">
+        <v>330</v>
+      </c>
+      <c r="B330" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C330" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D330" s="9"/>
-      <c r="E330" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F330" s="9"/>
-      <c r="G330" s="9"/>
+      <c r="E330" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F330" s="5"/>
     </row>
     <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="3">
-        <v>330</v>
-      </c>
-      <c r="B331" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C331" s="13" t="s">
+      <c r="A331" s="7">
+        <v>331</v>
+      </c>
+      <c r="B331" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C331" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E331" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F331" s="5"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9"/>
     </row>
     <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="7">
-        <v>331</v>
-      </c>
-      <c r="B332" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C332" s="12" t="s">
+      <c r="A332" s="3">
+        <v>332</v>
+      </c>
+      <c r="B332" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C332" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D332" s="9"/>
-      <c r="E332" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F332" s="9"/>
-      <c r="G332" s="9"/>
+      <c r="E332" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F332" s="5"/>
     </row>
     <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="3">
-        <v>332</v>
-      </c>
-      <c r="B333" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C333" s="13" t="s">
+      <c r="A333" s="7">
+        <v>333</v>
+      </c>
+      <c r="B333" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C333" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E333" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F333" s="5"/>
+      <c r="D333" s="9"/>
+      <c r="E333" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F333" s="9"/>
+      <c r="G333" s="9"/>
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="7">
-        <v>333</v>
-      </c>
-      <c r="B334" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C334" s="12" t="s">
+      <c r="A334" s="3">
+        <v>334</v>
+      </c>
+      <c r="B334" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C334" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D334" s="9"/>
-      <c r="E334" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F334" s="9"/>
-      <c r="G334" s="9"/>
+      <c r="E334" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F334" s="5"/>
     </row>
     <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="3">
-        <v>334</v>
-      </c>
-      <c r="B335" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C335" s="13" t="s">
+      <c r="A335" s="7">
+        <v>335</v>
+      </c>
+      <c r="B335" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C335" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="E335" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F335" s="5"/>
+      <c r="D335" s="9"/>
+      <c r="E335" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F335" s="9"/>
+      <c r="G335" s="9"/>
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="7">
-        <v>335</v>
-      </c>
-      <c r="B336" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C336" s="12" t="s">
+      <c r="A336" s="3">
+        <v>336</v>
+      </c>
+      <c r="B336" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C336" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D336" s="9"/>
-      <c r="E336" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F336" s="9"/>
-      <c r="G336" s="9"/>
+      <c r="E336" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F336" s="5"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="3">
-        <v>336</v>
-      </c>
-      <c r="B337" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C337" s="13" t="s">
+      <c r="A337" s="7">
+        <v>337</v>
+      </c>
+      <c r="B337" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C337" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="E337" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F337" s="5"/>
+      <c r="D337" s="9"/>
+      <c r="E337" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F337" s="9"/>
+      <c r="G337" s="9"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="7">
-        <v>337</v>
-      </c>
-      <c r="B338" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C338" s="12" t="s">
+      <c r="A338" s="3">
+        <v>338</v>
+      </c>
+      <c r="B338" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C338" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D338" s="9"/>
-      <c r="E338" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F338" s="9"/>
-      <c r="G338" s="9"/>
+      <c r="E338" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F338" s="5"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="3">
-        <v>338</v>
-      </c>
-      <c r="B339" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C339" s="13" t="s">
+      <c r="A339" s="7">
+        <v>339</v>
+      </c>
+      <c r="B339" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C339" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="E339" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F339" s="5"/>
+      <c r="D339" s="9"/>
+      <c r="E339" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F339" s="9"/>
+      <c r="G339" s="9"/>
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="7">
-        <v>339</v>
-      </c>
-      <c r="B340" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C340" s="12" t="s">
+      <c r="A340" s="3">
+        <v>340</v>
+      </c>
+      <c r="B340" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C340" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D340" s="9"/>
-      <c r="E340" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F340" s="9"/>
-      <c r="G340" s="9"/>
+      <c r="E340" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F340" s="5"/>
     </row>
     <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="3">
-        <v>340</v>
-      </c>
-      <c r="B341" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C341" s="13" t="s">
+      <c r="A341" s="7">
+        <v>341</v>
+      </c>
+      <c r="B341" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C341" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E341" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F341" s="5"/>
+      <c r="D341" s="9"/>
+      <c r="E341" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F341" s="9"/>
+      <c r="G341" s="9"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="7">
-        <v>341</v>
-      </c>
-      <c r="B342" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C342" s="12" t="s">
+      <c r="A342" s="3">
+        <v>342</v>
+      </c>
+      <c r="B342" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C342" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D342" s="9"/>
-      <c r="E342" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F342" s="9"/>
-      <c r="G342" s="9"/>
+      <c r="E342" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F342" s="5"/>
     </row>
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="3">
-        <v>342</v>
-      </c>
-      <c r="B343" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C343" s="13" t="s">
+      <c r="A343" s="7">
+        <v>343</v>
+      </c>
+      <c r="B343" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C343" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="E343" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F343" s="5"/>
+      <c r="D343" s="9"/>
+      <c r="E343" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F343" s="9"/>
+      <c r="G343" s="9"/>
     </row>
     <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="7">
-        <v>343</v>
-      </c>
-      <c r="B344" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C344" s="12" t="s">
+      <c r="A344" s="3">
+        <v>344</v>
+      </c>
+      <c r="B344" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C344" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D344" s="9"/>
-      <c r="E344" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F344" s="9"/>
-      <c r="G344" s="9"/>
+      <c r="E344" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F344" s="5"/>
     </row>
     <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="3">
-        <v>344</v>
-      </c>
-      <c r="B345" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C345" s="13" t="s">
+      <c r="A345" s="7">
+        <v>345</v>
+      </c>
+      <c r="B345" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C345" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="E345" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F345" s="5"/>
+      <c r="D345" s="9"/>
+      <c r="E345" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F345" s="9"/>
+      <c r="G345" s="9"/>
     </row>
     <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="7">
-        <v>345</v>
-      </c>
-      <c r="B346" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C346" s="12" t="s">
+      <c r="A346" s="3">
+        <v>346</v>
+      </c>
+      <c r="B346" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C346" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D346" s="9"/>
-      <c r="E346" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F346" s="9"/>
-      <c r="G346" s="9"/>
+      <c r="E346" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F346" s="5"/>
     </row>
     <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="3">
-        <v>346</v>
-      </c>
-      <c r="B347" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C347" s="13" t="s">
+      <c r="A347" s="7">
+        <v>347</v>
+      </c>
+      <c r="B347" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C347" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="E347" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F347" s="5"/>
+      <c r="D347" s="9"/>
+      <c r="E347" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F347" s="9"/>
+      <c r="G347" s="9"/>
     </row>
     <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="7">
-        <v>347</v>
-      </c>
-      <c r="B348" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C348" s="12" t="s">
+      <c r="A348" s="3">
+        <v>348</v>
+      </c>
+      <c r="B348" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C348" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="D348" s="9"/>
-      <c r="E348" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F348" s="9"/>
-      <c r="G348" s="9"/>
+      <c r="E348" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F348" s="5"/>
     </row>
     <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="3">
-        <v>348</v>
-      </c>
-      <c r="B349" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C349" s="13" t="s">
+      <c r="A349" s="7">
+        <v>349</v>
+      </c>
+      <c r="B349" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C349" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="E349" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F349" s="5"/>
+      <c r="D349" s="9"/>
+      <c r="E349" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F349" s="9"/>
+      <c r="G349" s="9"/>
     </row>
     <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="7">
-        <v>349</v>
-      </c>
-      <c r="B350" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C350" s="12" t="s">
+      <c r="A350" s="3">
+        <v>350</v>
+      </c>
+      <c r="B350" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C350" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D350" s="9"/>
-      <c r="E350" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F350" s="9"/>
-      <c r="G350" s="9"/>
+      <c r="E350" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F350" s="5"/>
     </row>
     <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="3">
-        <v>350</v>
-      </c>
-      <c r="B351" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C351" s="13" t="s">
+      <c r="A351" s="7">
+        <v>351</v>
+      </c>
+      <c r="B351" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C351" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E351" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F351" s="5"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F351" s="9"/>
+      <c r="G351" s="9"/>
     </row>
     <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="7">
-        <v>351</v>
-      </c>
-      <c r="B352" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C352" s="12" t="s">
+      <c r="A352" s="3">
+        <v>352</v>
+      </c>
+      <c r="B352" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C352" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D352" s="9"/>
-      <c r="E352" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F352" s="9"/>
-      <c r="G352" s="9"/>
+      <c r="E352" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F352" s="5"/>
     </row>
     <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="3">
-        <v>352</v>
-      </c>
-      <c r="B353" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C353" s="13" t="s">
+      <c r="A353" s="7">
+        <v>353</v>
+      </c>
+      <c r="B353" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C353" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E353" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F353" s="5"/>
+      <c r="D353" s="9"/>
+      <c r="E353" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F353" s="9"/>
+      <c r="G353" s="9"/>
     </row>
     <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="7">
-        <v>353</v>
-      </c>
-      <c r="B354" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C354" s="12" t="s">
+      <c r="A354" s="3">
+        <v>354</v>
+      </c>
+      <c r="B354" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C354" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D354" s="9"/>
-      <c r="E354" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F354" s="9"/>
-      <c r="G354" s="9"/>
+      <c r="E354" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F354" s="5"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="3">
-        <v>354</v>
-      </c>
-      <c r="B355" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C355" s="13" t="s">
+      <c r="A355" s="7">
+        <v>355</v>
+      </c>
+      <c r="B355" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C355" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="E355" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F355" s="5"/>
+      <c r="D355" s="9"/>
+      <c r="E355" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F355" s="9"/>
+      <c r="G355" s="9"/>
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="7">
-        <v>355</v>
-      </c>
-      <c r="B356" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C356" s="12" t="s">
+      <c r="A356" s="3">
+        <v>356</v>
+      </c>
+      <c r="B356" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C356" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D356" s="9"/>
-      <c r="E356" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F356" s="9"/>
-      <c r="G356" s="9"/>
+      <c r="E356" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F356" s="5"/>
     </row>
     <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="3">
-        <v>356</v>
-      </c>
-      <c r="B357" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C357" s="13" t="s">
+      <c r="A357" s="7">
+        <v>357</v>
+      </c>
+      <c r="B357" s="8">
+        <v>44624</v>
+      </c>
+      <c r="C357" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="E357" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F357" s="5"/>
+      <c r="D357" s="9"/>
+      <c r="E357" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F357" s="9"/>
+      <c r="G357" s="9"/>
     </row>
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="7">
-        <v>357</v>
-      </c>
-      <c r="B358" s="8">
-        <v>44624</v>
-      </c>
-      <c r="C358" s="12" t="s">
+      <c r="A358" s="3">
+        <v>358</v>
+      </c>
+      <c r="B358" s="6">
+        <v>44624</v>
+      </c>
+      <c r="C358" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D358" s="9"/>
-      <c r="E358" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F358" s="9"/>
-      <c r="G358" s="9"/>
+      <c r="E358" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F358" s="5"/>
     </row>
     <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="3">
-        <v>358</v>
-      </c>
-      <c r="B359" s="6">
-        <v>44624</v>
-      </c>
-      <c r="C359" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E359" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F359" s="5"/>
+      <c r="A359" s="7"/>
+      <c r="B359" s="8"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="9"/>
+      <c r="E359" s="10"/>
+      <c r="F359" s="9"/>
+      <c r="G359" s="9"/>
     </row>
     <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="7"/>
-      <c r="B360" s="8"/>
-      <c r="C360" s="12"/>
-      <c r="D360" s="9"/>
-      <c r="E360" s="10"/>
-      <c r="F360" s="9"/>
-      <c r="G360" s="9"/>
+      <c r="A360" s="3"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="13"/>
+      <c r="E360" s="15"/>
+      <c r="F360" s="5"/>
     </row>
     <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="3"/>
-      <c r="B361" s="6"/>
-      <c r="C361" s="13"/>
-      <c r="E361" s="15"/>
-      <c r="F361" s="5"/>
+      <c r="A361" s="7"/>
+      <c r="B361" s="8"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="9"/>
+      <c r="E361" s="10"/>
+      <c r="F361" s="9"/>
+      <c r="G361" s="9"/>
     </row>
     <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="7"/>
-      <c r="B362" s="8"/>
-      <c r="C362" s="12"/>
-      <c r="D362" s="9"/>
-      <c r="E362" s="10"/>
-      <c r="F362" s="9"/>
-      <c r="G362" s="9"/>
+      <c r="A362" s="3"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="13"/>
+      <c r="E362" s="15"/>
+      <c r="F362" s="5"/>
     </row>
     <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="3"/>
-      <c r="B363" s="6"/>
-      <c r="C363" s="13"/>
-      <c r="E363" s="15"/>
-      <c r="F363" s="5"/>
+      <c r="A363" s="7"/>
+      <c r="B363" s="8"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="9"/>
+      <c r="E363" s="10"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9"/>
     </row>
     <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="7"/>
-      <c r="B364" s="8"/>
-      <c r="C364" s="12"/>
-      <c r="D364" s="9"/>
-      <c r="E364" s="10"/>
-      <c r="F364" s="9"/>
-      <c r="G364" s="9"/>
+      <c r="A364" s="3"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="13"/>
+      <c r="E364" s="15"/>
+      <c r="F364" s="5"/>
     </row>
     <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="3"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="13"/>
-      <c r="E365" s="15"/>
-      <c r="F365" s="5"/>
+      <c r="A365" s="7"/>
+      <c r="B365" s="8"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="9"/>
+      <c r="E365" s="10"/>
+      <c r="F365" s="9"/>
+      <c r="G365" s="9"/>
     </row>
     <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="7"/>
-      <c r="B366" s="8"/>
-      <c r="C366" s="12"/>
-      <c r="D366" s="9"/>
-      <c r="E366" s="10"/>
-      <c r="F366" s="9"/>
-      <c r="G366" s="9"/>
+      <c r="A366" s="3"/>
+      <c r="B366" s="6"/>
+      <c r="C366" s="13"/>
+      <c r="E366" s="15"/>
+      <c r="F366" s="5"/>
     </row>
     <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="3"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="13"/>
-      <c r="E367" s="15"/>
-      <c r="F367" s="5"/>
+      <c r="A367" s="7"/>
+      <c r="B367" s="8"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="9"/>
+      <c r="E367" s="10"/>
+      <c r="F367" s="9"/>
+      <c r="G367" s="9"/>
     </row>
     <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="7"/>
-      <c r="B368" s="8"/>
-      <c r="C368" s="12"/>
-      <c r="D368" s="9"/>
-      <c r="E368" s="10"/>
-      <c r="F368" s="9"/>
-      <c r="G368" s="9"/>
+      <c r="A368" s="3"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="13"/>
+      <c r="E368" s="15"/>
+      <c r="F368" s="5"/>
     </row>
     <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="3"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="13"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="5"/>
+      <c r="A369" s="7"/>
+      <c r="B369" s="8"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="9"/>
+      <c r="E369" s="10"/>
+      <c r="F369" s="9"/>
+      <c r="G369" s="9"/>
     </row>
     <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="7"/>
-      <c r="B370" s="8"/>
-      <c r="C370" s="12"/>
-      <c r="D370" s="9"/>
-      <c r="E370" s="10"/>
-      <c r="F370" s="9"/>
-      <c r="G370" s="9"/>
+      <c r="A370" s="3"/>
+      <c r="B370" s="6"/>
+      <c r="C370" s="13"/>
+      <c r="E370" s="15"/>
+      <c r="F370" s="5"/>
     </row>
     <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="3"/>
-      <c r="B371" s="6"/>
-      <c r="C371" s="13"/>
-      <c r="E371" s="15"/>
-      <c r="F371" s="5"/>
+      <c r="A371" s="7"/>
+      <c r="B371" s="8"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="9"/>
+      <c r="E371" s="10"/>
+      <c r="F371" s="9"/>
+      <c r="G371" s="9"/>
     </row>
     <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="7"/>
-      <c r="B372" s="8"/>
-      <c r="C372" s="12"/>
-      <c r="D372" s="9"/>
-      <c r="E372" s="10"/>
-      <c r="F372" s="9"/>
-      <c r="G372" s="9"/>
+      <c r="A372" s="3"/>
+      <c r="B372" s="6"/>
+      <c r="C372" s="13"/>
+      <c r="E372" s="15"/>
+      <c r="F372" s="5"/>
     </row>
     <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="3"/>
-      <c r="B373" s="6"/>
-      <c r="C373" s="13"/>
-      <c r="E373" s="15"/>
-      <c r="F373" s="5"/>
+      <c r="A373" s="7"/>
+      <c r="B373" s="8"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="9"/>
+      <c r="E373" s="10"/>
+      <c r="F373" s="9"/>
+      <c r="G373" s="9"/>
     </row>
     <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="7"/>
-      <c r="B374" s="8"/>
-      <c r="C374" s="12"/>
-      <c r="D374" s="9"/>
-      <c r="E374" s="10"/>
-      <c r="F374" s="9"/>
-      <c r="G374" s="9"/>
+      <c r="A374" s="3"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="13"/>
+      <c r="E374" s="15"/>
+      <c r="F374" s="5"/>
     </row>
     <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="3"/>
-      <c r="B375" s="6"/>
-      <c r="C375" s="13"/>
-      <c r="E375" s="15"/>
-      <c r="F375" s="5"/>
+      <c r="A375" s="7"/>
+      <c r="B375" s="8"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="9"/>
+      <c r="E375" s="10"/>
+      <c r="F375" s="9"/>
+      <c r="G375" s="9"/>
     </row>
     <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="7"/>
-      <c r="B376" s="8"/>
-      <c r="C376" s="12"/>
-      <c r="D376" s="9"/>
-      <c r="E376" s="10"/>
-      <c r="F376" s="9"/>
-      <c r="G376" s="9"/>
+      <c r="A376" s="3"/>
+      <c r="B376" s="6"/>
+      <c r="C376" s="13"/>
+      <c r="E376" s="15"/>
+      <c r="F376" s="5"/>
     </row>
     <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="3"/>
-      <c r="B377" s="6"/>
-      <c r="C377" s="13"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="5"/>
+      <c r="A377" s="7"/>
+      <c r="B377" s="8"/>
+      <c r="C377" s="12"/>
+      <c r="D377" s="9"/>
+      <c r="E377" s="10"/>
+      <c r="F377" s="9"/>
+      <c r="G377" s="9"/>
     </row>
     <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="7"/>
-      <c r="B378" s="8"/>
-      <c r="C378" s="12"/>
-      <c r="D378" s="9"/>
-      <c r="E378" s="10"/>
-      <c r="F378" s="9"/>
-      <c r="G378" s="9"/>
+      <c r="A378" s="3"/>
+      <c r="B378" s="6"/>
+      <c r="C378" s="13"/>
+      <c r="E378" s="15"/>
+      <c r="F378" s="5"/>
     </row>
     <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="3"/>
-      <c r="B379" s="6"/>
-      <c r="C379" s="13"/>
-      <c r="E379" s="15"/>
-      <c r="F379" s="5"/>
+      <c r="A379" s="7"/>
+      <c r="B379" s="8"/>
+      <c r="C379" s="12"/>
+      <c r="D379" s="9"/>
+      <c r="E379" s="10"/>
+      <c r="F379" s="9"/>
+      <c r="G379" s="9"/>
     </row>
     <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="7"/>
-      <c r="B380" s="8"/>
-      <c r="C380" s="12"/>
-      <c r="D380" s="9"/>
-      <c r="E380" s="10"/>
-      <c r="F380" s="9"/>
-      <c r="G380" s="9"/>
+      <c r="A380" s="3"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="13"/>
+      <c r="E380" s="15"/>
+      <c r="F380" s="5"/>
     </row>
     <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="3"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="13"/>
-      <c r="E381" s="15"/>
-      <c r="F381" s="5"/>
+      <c r="A381" s="7"/>
+      <c r="B381" s="8"/>
+      <c r="C381" s="12"/>
+      <c r="D381" s="9"/>
+      <c r="E381" s="10"/>
+      <c r="F381" s="9"/>
+      <c r="G381" s="9"/>
     </row>
     <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="7"/>
-      <c r="B382" s="8"/>
-      <c r="C382" s="12"/>
-      <c r="D382" s="9"/>
-      <c r="E382" s="10"/>
-      <c r="F382" s="9"/>
-      <c r="G382" s="9"/>
+      <c r="A382" s="3"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="13"/>
+      <c r="E382" s="15"/>
+      <c r="F382" s="5"/>
     </row>
     <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="3"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="13"/>
-      <c r="E383" s="15"/>
-      <c r="F383" s="5"/>
+      <c r="A383" s="7"/>
+      <c r="B383" s="8"/>
+      <c r="C383" s="12"/>
+      <c r="D383" s="9"/>
+      <c r="E383" s="10"/>
+      <c r="F383" s="9"/>
+      <c r="G383" s="9"/>
     </row>
     <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="7"/>
-      <c r="B384" s="8"/>
-      <c r="C384" s="12"/>
-      <c r="D384" s="9"/>
-      <c r="E384" s="10"/>
-      <c r="F384" s="9"/>
-      <c r="G384" s="9"/>
+      <c r="A384" s="3"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="13"/>
+      <c r="E384" s="15"/>
+      <c r="F384" s="5"/>
     </row>
     <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="3"/>
-      <c r="B385" s="6"/>
-      <c r="C385" s="13"/>
-      <c r="E385" s="15"/>
-      <c r="F385" s="5"/>
+      <c r="A385" s="7"/>
+      <c r="B385" s="8"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="9"/>
+      <c r="E385" s="10"/>
+      <c r="F385" s="9"/>
+      <c r="G385" s="9"/>
     </row>
     <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="7"/>
-      <c r="B386" s="8"/>
-      <c r="C386" s="12"/>
-      <c r="D386" s="9"/>
-      <c r="E386" s="10"/>
-      <c r="F386" s="9"/>
-      <c r="G386" s="9"/>
+      <c r="A386" s="3"/>
+      <c r="B386" s="6"/>
+      <c r="C386" s="13"/>
+      <c r="E386" s="15"/>
+      <c r="F386" s="5"/>
     </row>
     <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="3"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="13"/>
-      <c r="E387" s="15"/>
-      <c r="F387" s="5"/>
+      <c r="A387" s="7"/>
+      <c r="B387" s="8"/>
+      <c r="C387" s="12"/>
+      <c r="D387" s="9"/>
+      <c r="E387" s="10"/>
+      <c r="F387" s="9"/>
+      <c r="G387" s="9"/>
     </row>
     <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="7"/>
-      <c r="B388" s="8"/>
-      <c r="C388" s="12"/>
-      <c r="D388" s="9"/>
-      <c r="E388" s="10"/>
-      <c r="F388" s="9"/>
-      <c r="G388" s="9"/>
+      <c r="A388" s="3"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="13"/>
+      <c r="E388" s="15"/>
+      <c r="F388" s="5"/>
     </row>
     <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="3"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="13"/>
-      <c r="E389" s="15"/>
-      <c r="F389" s="5"/>
+      <c r="A389" s="7"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="10"/>
+      <c r="F389" s="9"/>
+      <c r="G389" s="9"/>
     </row>
     <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="7"/>
-      <c r="B390" s="8"/>
-      <c r="C390" s="12"/>
-      <c r="D390" s="9"/>
-      <c r="E390" s="10"/>
-      <c r="F390" s="9"/>
-      <c r="G390" s="9"/>
+      <c r="A390" s="3"/>
+      <c r="B390" s="6"/>
+      <c r="C390" s="13"/>
+      <c r="E390" s="15"/>
+      <c r="F390" s="5"/>
     </row>
     <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="3"/>
-      <c r="B391" s="6"/>
-      <c r="C391" s="13"/>
-      <c r="E391" s="15"/>
-      <c r="F391" s="5"/>
+      <c r="A391" s="7"/>
+      <c r="B391" s="8"/>
+      <c r="C391" s="12"/>
+      <c r="D391" s="9"/>
+      <c r="E391" s="10"/>
+      <c r="F391" s="9"/>
+      <c r="G391" s="9"/>
     </row>
     <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="7"/>
-      <c r="B392" s="8"/>
-      <c r="C392" s="12"/>
-      <c r="D392" s="9"/>
-      <c r="E392" s="10"/>
-      <c r="F392" s="9"/>
-      <c r="G392" s="9"/>
+      <c r="A392" s="3"/>
+      <c r="B392" s="6"/>
+      <c r="C392" s="13"/>
+      <c r="E392" s="15"/>
+      <c r="F392" s="5"/>
     </row>
     <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="3"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="13"/>
-      <c r="E393" s="15"/>
-      <c r="F393" s="5"/>
+      <c r="A393" s="7"/>
+      <c r="B393" s="8"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="9"/>
+      <c r="E393" s="10"/>
+      <c r="F393" s="9"/>
+      <c r="G393" s="9"/>
     </row>
     <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="7"/>
-      <c r="B394" s="8"/>
-      <c r="C394" s="12"/>
-      <c r="D394" s="9"/>
-      <c r="E394" s="10"/>
-      <c r="F394" s="9"/>
-      <c r="G394" s="9"/>
+      <c r="A394" s="3"/>
+      <c r="B394" s="6"/>
+      <c r="C394" s="13"/>
+      <c r="E394" s="15"/>
+      <c r="F394" s="5"/>
     </row>
     <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="3"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="13"/>
-      <c r="E395" s="15"/>
-      <c r="F395" s="5"/>
+      <c r="A395" s="7"/>
+      <c r="B395" s="8"/>
+      <c r="C395" s="12"/>
+      <c r="D395" s="9"/>
+      <c r="E395" s="10"/>
+      <c r="F395" s="9"/>
+      <c r="G395" s="9"/>
     </row>
     <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="7"/>
-      <c r="B396" s="8"/>
-      <c r="C396" s="12"/>
-      <c r="D396" s="9"/>
-      <c r="E396" s="10"/>
-      <c r="F396" s="9"/>
-      <c r="G396" s="9"/>
+      <c r="A396" s="3"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="13"/>
+      <c r="E396" s="15"/>
+      <c r="F396" s="5"/>
     </row>
     <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="3"/>
-      <c r="B397" s="6"/>
-      <c r="C397" s="13"/>
-      <c r="E397" s="15"/>
-      <c r="F397" s="5"/>
+      <c r="A397" s="7"/>
+      <c r="B397" s="8"/>
+      <c r="C397" s="12"/>
+      <c r="D397" s="9"/>
+      <c r="E397" s="10"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="9"/>
     </row>
     <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="7"/>
-      <c r="B398" s="8"/>
-      <c r="C398" s="12"/>
-      <c r="D398" s="9"/>
-      <c r="E398" s="10"/>
-      <c r="F398" s="9"/>
-      <c r="G398" s="9"/>
+      <c r="A398" s="3"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="13"/>
+      <c r="E398" s="15"/>
+      <c r="F398" s="5"/>
     </row>
     <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="3"/>
-      <c r="B399" s="6"/>
-      <c r="C399" s="13"/>
-      <c r="E399" s="15"/>
-      <c r="F399" s="5"/>
+      <c r="A399" s="7"/>
+      <c r="B399" s="8"/>
+      <c r="C399" s="12"/>
+      <c r="D399" s="9"/>
+      <c r="E399" s="10"/>
+      <c r="F399" s="9"/>
+      <c r="G399" s="9"/>
     </row>
     <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="7"/>
-      <c r="B400" s="8"/>
-      <c r="C400" s="12"/>
-      <c r="D400" s="9"/>
-      <c r="E400" s="10"/>
-      <c r="F400" s="9"/>
-      <c r="G400" s="9"/>
+      <c r="A400" s="3"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="13"/>
+      <c r="E400" s="15"/>
+      <c r="F400" s="5"/>
     </row>
     <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="3"/>
-      <c r="B401" s="6"/>
-      <c r="C401" s="13"/>
-      <c r="E401" s="15"/>
-      <c r="F401" s="5"/>
+      <c r="A401" s="7"/>
+      <c r="B401" s="8"/>
+      <c r="C401" s="12"/>
+      <c r="D401" s="9"/>
+      <c r="E401" s="10"/>
+      <c r="F401" s="9"/>
+      <c r="G401" s="9"/>
     </row>
     <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="7"/>
-      <c r="B402" s="8"/>
-      <c r="C402" s="12"/>
-      <c r="D402" s="9"/>
-      <c r="E402" s="10"/>
-      <c r="F402" s="9"/>
-      <c r="G402" s="9"/>
+      <c r="A402" s="3"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="13"/>
+      <c r="E402" s="15"/>
+      <c r="F402" s="5"/>
     </row>
     <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="3"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="13"/>
-      <c r="E403" s="15"/>
-      <c r="F403" s="5"/>
+      <c r="A403" s="7"/>
+      <c r="B403" s="8"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="9"/>
+      <c r="E403" s="10"/>
+      <c r="F403" s="9"/>
+      <c r="G403" s="9"/>
     </row>
     <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="7"/>
-      <c r="B404" s="8"/>
-      <c r="C404" s="12"/>
-      <c r="D404" s="9"/>
-      <c r="E404" s="10"/>
-      <c r="F404" s="9"/>
-      <c r="G404" s="9"/>
+      <c r="A404" s="3"/>
+      <c r="B404" s="6"/>
+      <c r="C404" s="13"/>
+      <c r="E404" s="15"/>
+      <c r="F404" s="5"/>
     </row>
     <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="3"/>
-      <c r="B405" s="6"/>
-      <c r="C405" s="13"/>
-      <c r="E405" s="15"/>
-      <c r="F405" s="5"/>
+      <c r="A405" s="7"/>
+      <c r="B405" s="8"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="9"/>
+      <c r="E405" s="10"/>
+      <c r="F405" s="9"/>
+      <c r="G405" s="9"/>
     </row>
     <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="7"/>
-      <c r="B406" s="8"/>
-      <c r="C406" s="12"/>
-      <c r="D406" s="9"/>
-      <c r="E406" s="10"/>
-      <c r="F406" s="9"/>
-      <c r="G406" s="9"/>
+      <c r="A406" s="3"/>
+      <c r="B406" s="6"/>
+      <c r="C406" s="13"/>
+      <c r="E406" s="15"/>
+      <c r="F406" s="5"/>
     </row>
     <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="3"/>
-      <c r="B407" s="6"/>
-      <c r="C407" s="13"/>
-      <c r="E407" s="15"/>
-      <c r="F407" s="5"/>
+      <c r="A407" s="7"/>
+      <c r="B407" s="8"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="9"/>
+      <c r="E407" s="10"/>
+      <c r="F407" s="9"/>
+      <c r="G407" s="9"/>
     </row>
     <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="7"/>
-      <c r="B408" s="8"/>
-      <c r="C408" s="12"/>
-      <c r="D408" s="9"/>
-      <c r="E408" s="10"/>
-      <c r="F408" s="9"/>
-      <c r="G408" s="9"/>
+      <c r="A408" s="3"/>
+      <c r="B408" s="6"/>
+      <c r="C408" s="13"/>
+      <c r="E408" s="15"/>
+      <c r="F408" s="5"/>
     </row>
     <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="3"/>
-      <c r="B409" s="6"/>
-      <c r="C409" s="13"/>
-      <c r="E409" s="15"/>
-      <c r="F409" s="5"/>
+      <c r="A409" s="7"/>
+      <c r="B409" s="8"/>
+      <c r="C409" s="12"/>
+      <c r="D409" s="9"/>
+      <c r="E409" s="10"/>
+      <c r="F409" s="9"/>
+      <c r="G409" s="9"/>
     </row>
     <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="7"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="12"/>
-      <c r="D410" s="9"/>
-      <c r="E410" s="10"/>
-      <c r="F410" s="9"/>
-      <c r="G410" s="9"/>
+      <c r="A410" s="3"/>
+      <c r="B410" s="6"/>
+      <c r="C410" s="13"/>
+      <c r="E410" s="15"/>
+      <c r="F410" s="5"/>
     </row>
     <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="3"/>
-      <c r="B411" s="6"/>
-      <c r="C411" s="13"/>
-      <c r="E411" s="15"/>
-      <c r="F411" s="5"/>
+      <c r="A411" s="7"/>
+      <c r="B411" s="8"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="9"/>
+      <c r="E411" s="10"/>
+      <c r="F411" s="9"/>
+      <c r="G411" s="9"/>
     </row>
     <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="7"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="12"/>
-      <c r="D412" s="9"/>
-      <c r="E412" s="10"/>
-      <c r="F412" s="9"/>
-      <c r="G412" s="9"/>
+      <c r="A412" s="3"/>
+      <c r="B412" s="6"/>
+      <c r="C412" s="13"/>
+      <c r="E412" s="15"/>
+      <c r="F412" s="5"/>
     </row>
     <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="3"/>
-      <c r="B413" s="6"/>
-      <c r="C413" s="13"/>
-      <c r="E413" s="15"/>
-      <c r="F413" s="5"/>
+      <c r="A413" s="7"/>
+      <c r="B413" s="8"/>
+      <c r="C413" s="12"/>
+      <c r="D413" s="9"/>
+      <c r="E413" s="10"/>
+      <c r="F413" s="9"/>
+      <c r="G413" s="9"/>
     </row>
     <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="7"/>
-      <c r="B414" s="8"/>
-      <c r="C414" s="12"/>
-      <c r="D414" s="9"/>
-      <c r="E414" s="10"/>
-      <c r="F414" s="9"/>
-      <c r="G414" s="9"/>
+      <c r="A414" s="3"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="13"/>
+      <c r="E414" s="15"/>
+      <c r="F414" s="5"/>
     </row>
     <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="3"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="13"/>
-      <c r="E415" s="15"/>
-      <c r="F415" s="5"/>
+      <c r="A415" s="7"/>
+      <c r="B415" s="8"/>
+      <c r="C415" s="12"/>
+      <c r="D415" s="9"/>
+      <c r="E415" s="10"/>
+      <c r="F415" s="9"/>
+      <c r="G415" s="9"/>
     </row>
     <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="7"/>
-      <c r="B416" s="8"/>
-      <c r="C416" s="12"/>
-      <c r="D416" s="9"/>
-      <c r="E416" s="10"/>
-      <c r="F416" s="9"/>
-      <c r="G416" s="9"/>
+      <c r="A416" s="3"/>
+      <c r="B416" s="6"/>
+      <c r="C416" s="13"/>
+      <c r="E416" s="15"/>
+      <c r="F416" s="5"/>
     </row>
     <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="3"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="13"/>
-      <c r="E417" s="15"/>
-      <c r="F417" s="5"/>
+      <c r="A417" s="7"/>
+      <c r="B417" s="8"/>
+      <c r="C417" s="12"/>
+      <c r="D417" s="9"/>
+      <c r="E417" s="10"/>
+      <c r="F417" s="9"/>
+      <c r="G417" s="9"/>
     </row>
     <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="7"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="12"/>
-      <c r="D418" s="9"/>
-      <c r="E418" s="10"/>
-      <c r="F418" s="9"/>
-      <c r="G418" s="9"/>
+      <c r="A418" s="3"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="13"/>
+      <c r="E418" s="15"/>
+      <c r="F418" s="5"/>
     </row>
     <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="3"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="13"/>
-      <c r="E419" s="15"/>
-      <c r="F419" s="5"/>
+      <c r="A419" s="7"/>
+      <c r="B419" s="8"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="9"/>
+      <c r="E419" s="10"/>
+      <c r="F419" s="9"/>
+      <c r="G419" s="9"/>
     </row>
     <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="7"/>
-      <c r="B420" s="8"/>
-      <c r="C420" s="12"/>
-      <c r="D420" s="9"/>
-      <c r="E420" s="10"/>
-      <c r="F420" s="9"/>
-      <c r="G420" s="9"/>
-    </row>
-    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="3"/>
-      <c r="B421" s="6"/>
-      <c r="C421" s="13"/>
-      <c r="E421" s="15"/>
-      <c r="F421" s="5"/>
-    </row>
+      <c r="A420" s="3"/>
+      <c r="B420" s="6"/>
+      <c r="C420" s="13"/>
+      <c r="E420" s="15"/>
+      <c r="F420" s="5"/>
+    </row>
+    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8336,7 +8317,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
